--- a/prompt/data/data_power_station.xlsx
+++ b/prompt/data/data_power_station.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0557\Documents\Work\docs\customer\sungrow\text2sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E13056-47B0-47D4-B40A-848941942F59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103961C0-22D2-4CFD-8934-91A33DB8089F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" activeTab="4" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="dwd_ps_power_station_org_d" sheetId="4" r:id="rId5"/>
     <sheet name="dwd_sungrow.dwd_sn_dev_sim_d" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="315">
   <si>
     <t>字段名</t>
   </si>
@@ -51,9 +51,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>不可枚举，维度，外键</t>
-  </si>
-  <si>
     <t>电站id,电站的唯一ID</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>STRING</t>
   </si>
   <si>
-    <t>不可枚举，维度</t>
-  </si>
-  <si>
     <t>电站编码</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>valid_flag</t>
   </si>
   <si>
-    <t>可枚举，维度</t>
-  </si>
-  <si>
     <t>有效标识，值*MUST*只能是这一个：‘1’代表‘有效’</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>access_type</t>
   </si>
   <si>
-    <t>可枚举 ，维度</t>
-  </si>
-  <si>
     <t>接入方式，值*MUST*只能是这些值中的一个：‘0’代表‘Insight Pro上传’，‘1’代表‘Logger上传’，‘2’代表‘GPRS上传’，‘3’代表‘第三方上传’，‘4’代表‘WIFI上传’，‘5’代表‘Insight V4上传’，‘6’代表‘EMS上传’，‘7’代表‘SCADA上传’。</t>
   </si>
   <si>
@@ -273,9 +261,6 @@
     <t>ps_key</t>
   </si>
   <si>
-    <t>不可枚举，维度，主键</t>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
   </si>
   <si>
@@ -342,18 +327,12 @@
     <t>dev_pro_sn</t>
   </si>
   <si>
-    <t>和dwd_sungrow.dwd_sn_dev_sim_d的dev_sn关联</t>
-  </si>
-  <si>
     <t>通讯设备机型</t>
   </si>
   <si>
     <t>total_installed_power</t>
   </si>
   <si>
-    <t>不可枚举，度量</t>
-  </si>
-  <si>
     <t>设备总装机功率，设备装机总容量，设备装机功率，设备装机容量</t>
   </si>
   <si>
@@ -597,9 +576,6 @@
     <t>crt_date</t>
   </si>
   <si>
-    <t>不可枚举，时间维度</t>
-  </si>
-  <si>
     <t>用户创建时间</t>
   </si>
   <si>
@@ -636,9 +612,6 @@
     <t>组织id</t>
   </si>
   <si>
-    <t>和dwd_sungrow.dwd_org_sys_org_all_sub_org_d的org_id关联</t>
-  </si>
-  <si>
     <t>org_name</t>
   </si>
   <si>
@@ -687,9 +660,6 @@
     <t>is_root_org</t>
   </si>
   <si>
-    <t>判断是否是根组织（是/否）</t>
-  </si>
-  <si>
     <t>login_times</t>
   </si>
   <si>
@@ -714,30 +684,18 @@
     <t>自增id</t>
   </si>
   <si>
-    <t>和dwd_sungrow.dwd_pub_user_org_d的org_id关联</t>
-  </si>
-  <si>
     <t>sub_org_id</t>
   </si>
   <si>
     <t>组织ID对应的下级子孙的组织ID</t>
   </si>
   <si>
-    <t>和dwd_sungrow.dwd_ps_power_station_org_d的org_id关联</t>
-  </si>
-  <si>
     <t>update_time</t>
   </si>
   <si>
     <t>电站id</t>
   </si>
   <si>
-    <t>和dwd_sungrow.dwd_pub_ps_dev_power_station_d的ps_id关联</t>
-  </si>
-  <si>
-    <t>和dwd_sungrow.dwd_org_sys_org_all_sub_org_d的sub_org_id关联</t>
-  </si>
-  <si>
     <t>根组织id</t>
   </si>
   <si>
@@ -753,13 +711,7 @@
     <t>通道id</t>
   </si>
   <si>
-    <t>dev_sn</t>
-  </si>
-  <si>
     <t>设备SN</t>
-  </si>
-  <si>
-    <t>和dwd_pub_ps_dev_power_station_d的dev_pro_sn关联</t>
   </si>
   <si>
     <t>设备型号id</t>
@@ -880,10 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>power_station 场景包含的数据如下：电站及电站管理的设备基础信息，电站相关的用户信息，电站关联的组织信息，组织及下级子孙组织的关系，电站和组织之间的关联信息，各个站点中电站出现过的故障信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包含了电站，电站关联的设备信息，是一张事务事实表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,10 +848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包含了电站和组织之间的关联信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包含通信设备流量套餐事务事实表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,9 +908,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查询规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于上述提到的任意表，如果表中具有分区字段pt, 则添加条件： pt=date_sub(current_date()，1)), 请一定注意pt不是时间或者日期字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡状态，值*MUST*只能是这些值中的一个代表‘1’代表‘正常’，‘2’代表‘单向停机’，‘3’代表‘停机’，‘4’代表‘预销号’，‘5’代表‘销号’，‘6’代表‘过户’，‘7’代表‘休眠’，‘8’代表‘待激活，‘活卡待激活’，‘9’代表‘补卡次月生效’，‘10’代表‘补损销号’，‘11’代表‘未知’，‘12’代表‘号码不存在’，‘13’代表‘用户报停’，‘14’代表‘用户拆机’，‘15’代表‘欠停(双向)’，‘16’代表‘欠停(单向)’，‘17’代表‘违章停机’，‘18’代表‘挂失’，‘20’代表‘已激活’，‘21’代表‘未激活’，‘22’代表‘未实名制违规停机’。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim卡修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型，值*MUST*只能是像‘逆变器’的这类中文名称，例如：‘’逆变器，‘储能逆变器’，‘通信装置’，‘通讯模块’等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯设备sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_conn_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备SN号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备如果需要进行通讯，则需要一个通讯设备，dev_conn_sn 是所需通讯设备的sn号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_conn_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备如果需要进行通讯，则需要一个通讯设备，dev_conn_model是所需通讯设备的机型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_station 场景包含的数据如下：电站及电站管理的设备基础信息，电站相关的用户、组织信息，组织及下级子孙组织的关系，组织和电站之间的关联信息，通信设备对应的流量续费信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含了组织和电站之间的关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计电站数量优先考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度，不可枚举，外键</t>
+  </si>
+  <si>
+    <t>维度，不可枚举</t>
+  </si>
+  <si>
+    <t>维度，不可枚举，主键</t>
+  </si>
+  <si>
+    <t>度量</t>
+  </si>
+  <si>
+    <t>维度，可枚举</t>
+  </si>
+  <si>
+    <t>时间维度，不可枚举</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维度，可枚举 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否是根组织（是/否）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.dwd_sungrow.dwd_pub_ps_dev_power_station_d
-外键ps_id与dwd_sungrow.dwd_ps_power_station_org_d）的ps_id关联
-外键ps_key与sg.dwd_dev_power_device_fault_details_d的ps_key关联
+外键ps_id与dwd_sungrow.dwd_ps_power_station_org_d的ps_id关联
+外键dev_pro_sn和dwd_sungrow.dwd_sn_dev_sim_d的dev_sn关联
 2.dwd_sungrow.dwd_pub_user_org_d 
 外键org_id与dwd_sungrow.dwd_org_sys_org_all_sub_org_d的org_id关联
 3.dwd_sungrow.dwd_org_sys_org_all_sub_org_d 
@@ -975,77 +1021,8 @@
 4.dwd_sungrow.dwd_ps_power_station_org_d 
 外键ps_id和dwd_sungrow.dwd_pub_ps_dev_power_station_d的ps_id关联
 外键org_id和dwd_sungrow.dwd_org_sys_org_all_sub_org_d的sub_org_id关联
-5.sg.dwd_dev_power_device_fault_details_d 
-外键ps_key和dwd_sungrow.dwd_pub_ps_dev_power_station_d的ps_key关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.对于上述提到的任意表，如果表中具有分区字段pt, 则添加条件： pt=date_sub(current_date()，1)), 请一定注意pt不是时间或者日期字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计电站数量优先考虑，和dwd_sungrow.dwd_ps_power_station_org_d的ps_id关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可枚举，维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up_uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡状态，值*MUST*只能是这些值中的一个代表‘1’代表‘正常’，‘2’代表‘单向停机’，‘3’代表‘停机’，‘4’代表‘预销号’，‘5’代表‘销号’，‘6’代表‘过户’，‘7’代表‘休眠’，‘8’代表‘待激活，‘活卡待激活’，‘9’代表‘补卡次月生效’，‘10’代表‘补损销号’，‘11’代表‘未知’，‘12’代表‘号码不存在’，‘13’代表‘用户报停’，‘14’代表‘用户拆机’，‘15’代表‘欠停(双向)’，‘16’代表‘欠停(单向)’，‘17’代表‘违章停机’，‘18’代表‘挂失’，‘20’代表‘已激活’，‘21’代表‘未激活’，‘22’代表‘未实名制违规停机’。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim卡修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型，值*MUST*只能是像‘逆变器’的这类中文名称，例如：‘’逆变器，‘储能逆变器’，‘通信装置’，‘通讯模块’等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev_type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev_type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯设备sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev_conn_sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备SN号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备如果需要进行通讯，则需要一个通讯设备，dev_conn_sn 是所需通讯设备的sn号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev_conn_model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备如果需要进行通讯，则需要一个通讯设备，dev_conn_model是所需通讯设备的机型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+5.dwd_sungrow.dwd_sn_dev_sim_d
+外键dev_sn和dwd_pub_ps_dev_power_station_d的dev_pro_sn关联</t>
   </si>
 </sst>
 </file>
@@ -1074,23 +1051,14 @@
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1107,6 +1075,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1142,17 +1124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1185,17 +1156,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1213,6 +1173,45 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1221,19 +1220,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,171 +1231,138 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1722,88 +1677,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E36538-5E93-44B1-BD4E-B84DA588422E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79551EC0-D0D3-4A1D-A68A-6C01A26FD0D0}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.84375" customWidth="1"/>
-    <col min="2" max="2" width="148.765625" customWidth="1"/>
+    <col min="2" max="2" width="148.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+        <v>284</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+        <v>285</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-    </row>
-    <row r="4" spans="1:15" ht="248" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="263.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>305</v>
+        <v>286</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -1818,79 +1773,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED69BAC-EE5C-43D6-B57E-C72E86F3E954}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.3046875"/>
+    <col min="1" max="1" width="23.23046875"/>
     <col min="2" max="2" width="11.53515625"/>
-    <col min="3" max="3" width="33.3046875" customWidth="1"/>
+    <col min="3" max="3" width="33.23046875" customWidth="1"/>
     <col min="4" max="4" width="13.3828125" customWidth="1"/>
     <col min="5" max="5" width="23.4609375" customWidth="1"/>
     <col min="6" max="6" width="29.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="A1" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+        <v>275</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1902,1297 +1857,1295 @@
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>308</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D11" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D14" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D15" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D19" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D20" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>47</v>
+      <c r="C21" s="15" t="s">
+        <v>312</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D22" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D23" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D25" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D27" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D32" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D34" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D35" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D36" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="54" t="s">
-        <v>316</v>
+      <c r="A40" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="54" t="s">
-        <v>315</v>
+      <c r="A41" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="18" t="s">
-        <v>314</v>
+      <c r="E41" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D42" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D43" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="54" t="s">
-        <v>318</v>
+      <c r="E48" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="F49" s="54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="54" t="s">
-        <v>321</v>
+      <c r="E49" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>322</v>
+        <v>100</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>108</v>
+        <v>24</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D52" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D53" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D54" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D55" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D56" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D57" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D63" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D64" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="54" t="s">
-        <v>309</v>
+      <c r="A72" s="17" t="s">
+        <v>289</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>310</v>
+        <v>10</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="54" t="s">
-        <v>311</v>
+      <c r="A75" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D77" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D78" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D79" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F80" s="2"/>
     </row>
@@ -3208,629 +3161,627 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF5EF02-A4AE-4937-8E6B-C5B3B196AABE}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.3046875"/>
+    <col min="1" max="1" width="14.23046875"/>
     <col min="3" max="3" width="20.23046875" customWidth="1"/>
     <col min="5" max="5" width="21.15234375" customWidth="1"/>
     <col min="6" max="6" width="36.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="A3" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D9" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D11" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D12" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D13" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D14" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D16" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D18" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>203</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="18" t="s">
-        <v>287</v>
+      <c r="E23" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D25" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D26" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D27" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D29" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D31" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>220</v>
+      <c r="E31" s="15" t="s">
+        <v>313</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D32" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -3846,14 +3797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D718C60-ED3B-4469-A9DD-9211990F8D51}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3863,168 +3814,164 @@
     <col min="3" max="3" width="17.3828125"/>
     <col min="4" max="4" width="20.3828125" customWidth="1"/>
     <col min="5" max="5" width="13.4609375" customWidth="1"/>
-    <col min="6" max="6" width="21.765625" customWidth="1"/>
+    <col min="6" max="6" width="21.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="A1" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>229</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D9" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="A10" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4037,14 +3984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3271F449-6600-46A8-8ECD-80C5E9C791BF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4056,75 +4003,75 @@
     <col min="6" max="6" width="27.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="A3" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -4136,121 +4083,117 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>235</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>236</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D9" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D11" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -4266,14 +4209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7012F2-E8A1-4CB2-AD07-3D595F02BD46}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4287,38 +4230,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="43"/>
+      <c r="A1" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="A3" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -4342,19 +4285,19 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D5" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -4366,443 +4309,441 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>242</v>
+      <c r="A8" s="17" t="s">
+        <v>305</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>244</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D9" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="D16" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D17" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="188.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="18" t="s">
-        <v>312</v>
+      <c r="E20" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D21" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D22" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>313</v>
+      <c r="E22" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D23" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D24" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D25" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D26" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D27" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="D28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D29" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F31" s="2"/>
     </row>
